--- a/data/trans_orig/P05A05-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Clase-trans_orig.xlsx
@@ -10,7 +10,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2007" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2012" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7281,2262 +7280,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
-    <col width="14" customWidth="1" min="15" max="15"/>
-    <col width="14" customWidth="1" min="16" max="16"/>
-    <col width="14" customWidth="1" min="17" max="17"/>
-    <col width="14" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="14" customWidth="1" min="20" max="20"/>
-    <col width="14" customWidth="1" min="21" max="21"/>
-    <col width="14" customWidth="1" min="22" max="22"/>
-    <col width="14" customWidth="1" min="23" max="23"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Población según si en el barrio donde vive hay espacios verdes suficientes [En 2023 se pregunta en negativo] en 2023 (tasa de respuesta: 99,84%)</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="n"/>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
-      <c r="O1" s="3" t="n"/>
-      <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="R1" s="3" t="n"/>
-      <c r="S1" s="3" t="n"/>
-      <c r="T1" s="3" t="n"/>
-      <c r="U1" s="3" t="n"/>
-      <c r="V1" s="3" t="n"/>
-      <c r="W1" s="3" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="S2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="T2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="V2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="n"/>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
-      <c r="W3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Grupo I y II</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>59</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>62928</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>49250</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>80930</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0.1143738336350347</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0.08951448028763363</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0.1470934308248751</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>85</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>61041</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>49452</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>74624</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>0.1253454485361242</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>0.1015475014068579</v>
-      </c>
-      <c r="P4" s="6" t="n">
-        <v>0.1532384872108366</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>144</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>123969</v>
-      </c>
-      <c r="S4" s="5" t="n">
-        <v>103757</v>
-      </c>
-      <c r="T4" s="5" t="n">
-        <v>145896</v>
-      </c>
-      <c r="U4" s="6" t="n">
-        <v>0.119525283026259</v>
-      </c>
-      <c r="V4" s="6" t="n">
-        <v>0.1000381124208477</v>
-      </c>
-      <c r="W4" s="6" t="n">
-        <v>0.1406666787384089</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>89</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>91959</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>74472</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>111661</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0.167138937367817</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>0.1353555217507264</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0.2029488935481417</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>92</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>67925</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>55456</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>83504</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>0.13948264269575</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>0.1138772964922095</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>0.1714729969883998</v>
-      </c>
-      <c r="Q5" s="5" t="n">
-        <v>181</v>
-      </c>
-      <c r="R5" s="5" t="n">
-        <v>159884</v>
-      </c>
-      <c r="S5" s="5" t="n">
-        <v>137560</v>
-      </c>
-      <c r="T5" s="5" t="n">
-        <v>183939</v>
-      </c>
-      <c r="U5" s="6" t="n">
-        <v>0.1541536108104849</v>
-      </c>
-      <c r="V5" s="6" t="n">
-        <v>0.1326298891576776</v>
-      </c>
-      <c r="W5" s="6" t="n">
-        <v>0.1773464099703986</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>405</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>395308</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>372515</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>416775</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>0.7184872289971481</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>0.6770602658393976</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0.7575039767816933</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>507</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>358013</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>339445</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>375343</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>0.7351719087681258</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>0.6970424941131381</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>0.7707589087570346</v>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>912</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>753321</v>
-      </c>
-      <c r="S6" s="5" t="n">
-        <v>725971</v>
-      </c>
-      <c r="T6" s="5" t="n">
-        <v>783622</v>
-      </c>
-      <c r="U6" s="6" t="n">
-        <v>0.7263211061632562</v>
-      </c>
-      <c r="V6" s="6" t="n">
-        <v>0.6999511142297933</v>
-      </c>
-      <c r="W6" s="6" t="n">
-        <v>0.7555361778848051</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>553</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>550195</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>550195</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>550195</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>684</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>486979</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>486979</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>486979</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>1237</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>1037174</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>1037174</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>1037174</v>
-      </c>
-      <c r="U7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Grupo III</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>40991</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>28311</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>54583</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>0.08482994214701718</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>0.05858998681636522</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0.1129584899273719</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>64</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>48651</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>37180</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>61380</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>0.1149752401901842</v>
-      </c>
-      <c r="O8" s="6" t="n">
-        <v>0.08786543946895614</v>
-      </c>
-      <c r="P8" s="6" t="n">
-        <v>0.1450574060140652</v>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>101</v>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>89642</v>
-      </c>
-      <c r="S8" s="5" t="n">
-        <v>73094</v>
-      </c>
-      <c r="T8" s="5" t="n">
-        <v>106965</v>
-      </c>
-      <c r="U8" s="6" t="n">
-        <v>0.09890364112553403</v>
-      </c>
-      <c r="V8" s="6" t="n">
-        <v>0.08064611429478821</v>
-      </c>
-      <c r="W8" s="6" t="n">
-        <v>0.1180165404676659</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>62</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>64406</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>50390</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>83154</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0.1332877747727853</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>0.1042811081787915</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0.1720865346275106</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>89</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>65197</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>53437</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>80702</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>0.1540788021316091</v>
-      </c>
-      <c r="O9" s="6" t="n">
-        <v>0.1262848114575592</v>
-      </c>
-      <c r="P9" s="6" t="n">
-        <v>0.1907195470542544</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>151</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>129604</v>
-      </c>
-      <c r="S9" s="5" t="n">
-        <v>110559</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>152814</v>
-      </c>
-      <c r="U9" s="6" t="n">
-        <v>0.1429943187281044</v>
-      </c>
-      <c r="V9" s="6" t="n">
-        <v>0.1219825397496516</v>
-      </c>
-      <c r="W9" s="6" t="n">
-        <v>0.168602502601189</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>382</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>377815</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>357599</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>397613</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0.7818822830801975</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>0.7400455597211544</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0.8228533779811091</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>437</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>309295</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>291883</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>326351</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>0.7309459576782066</v>
-      </c>
-      <c r="O10" s="6" t="n">
-        <v>0.6897970421743905</v>
-      </c>
-      <c r="P10" s="6" t="n">
-        <v>0.7712550364609918</v>
-      </c>
-      <c r="Q10" s="5" t="n">
-        <v>819</v>
-      </c>
-      <c r="R10" s="5" t="n">
-        <v>687110</v>
-      </c>
-      <c r="S10" s="5" t="n">
-        <v>657983</v>
-      </c>
-      <c r="T10" s="5" t="n">
-        <v>709625</v>
-      </c>
-      <c r="U10" s="6" t="n">
-        <v>0.7581020401463616</v>
-      </c>
-      <c r="V10" s="6" t="n">
-        <v>0.7259658976105241</v>
-      </c>
-      <c r="W10" s="6" t="n">
-        <v>0.7829438585986366</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>481</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>483212</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>483212</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>483212</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>590</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>423143</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>423143</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>423143</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>1071</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>906355</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>906355</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>906355</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Grupo IV y V</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>40451</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>29781</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>54521</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>0.08577251727535072</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0.06314774567437748</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0.1156064583237102</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>17232</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>11786</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>24309</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>0.09190564516144478</v>
-      </c>
-      <c r="O12" s="6" t="n">
-        <v>0.0628605130945086</v>
-      </c>
-      <c r="P12" s="6" t="n">
-        <v>0.1296511805741171</v>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <v>68</v>
-      </c>
-      <c r="R12" s="5" t="n">
-        <v>57683</v>
-      </c>
-      <c r="S12" s="5" t="n">
-        <v>44851</v>
-      </c>
-      <c r="T12" s="5" t="n">
-        <v>72721</v>
-      </c>
-      <c r="U12" s="6" t="n">
-        <v>0.08751721326177582</v>
-      </c>
-      <c r="V12" s="6" t="n">
-        <v>0.06804804136625452</v>
-      </c>
-      <c r="W12" s="6" t="n">
-        <v>0.1103327447918787</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>53004</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>40485</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>69506</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0.112388661951871</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0.08584461667458403</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0.1473789524781407</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>23513</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>17082</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>33596</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>0.1254068476528842</v>
-      </c>
-      <c r="O13" s="6" t="n">
-        <v>0.09110315439734074</v>
-      </c>
-      <c r="P13" s="6" t="n">
-        <v>0.1791805837986822</v>
-      </c>
-      <c r="Q13" s="5" t="n">
-        <v>83</v>
-      </c>
-      <c r="R13" s="5" t="n">
-        <v>76517</v>
-      </c>
-      <c r="S13" s="5" t="n">
-        <v>62651</v>
-      </c>
-      <c r="T13" s="5" t="n">
-        <v>96243</v>
-      </c>
-      <c r="U13" s="6" t="n">
-        <v>0.1160919560564326</v>
-      </c>
-      <c r="V13" s="6" t="n">
-        <v>0.09505353225371836</v>
-      </c>
-      <c r="W13" s="6" t="n">
-        <v>0.1460204590169316</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>398</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>378157</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>358117</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>395195</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>0.8018388207727782</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>0.7593468563292598</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>0.8379668602881688</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>228</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>146752</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>136549</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>155267</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>0.7826875071856708</v>
-      </c>
-      <c r="O14" s="6" t="n">
-        <v>0.7282739829216913</v>
-      </c>
-      <c r="P14" s="6" t="n">
-        <v>0.8281036570371326</v>
-      </c>
-      <c r="Q14" s="5" t="n">
-        <v>626</v>
-      </c>
-      <c r="R14" s="5" t="n">
-        <v>524908</v>
-      </c>
-      <c r="S14" s="5" t="n">
-        <v>503801</v>
-      </c>
-      <c r="T14" s="5" t="n">
-        <v>543310</v>
-      </c>
-      <c r="U14" s="6" t="n">
-        <v>0.7963908306817917</v>
-      </c>
-      <c r="V14" s="6" t="n">
-        <v>0.7643663678254237</v>
-      </c>
-      <c r="W14" s="6" t="n">
-        <v>0.8243096746268107</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>488</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>471612</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>471612</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>471612</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>289</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>187497</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>187497</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>187497</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>777</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <v>659109</v>
-      </c>
-      <c r="S15" s="5" t="n">
-        <v>659109</v>
-      </c>
-      <c r="T15" s="5" t="n">
-        <v>659109</v>
-      </c>
-      <c r="U15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Grupo VI</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>72</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>76178</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>58751</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>93376</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0.06743555371875821</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>0.05200874993105098</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0.08266023300147117</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>112</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>86411</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>72142</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>103225</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>0.100484914560009</v>
-      </c>
-      <c r="O16" s="6" t="n">
-        <v>0.08389130357426634</v>
-      </c>
-      <c r="P16" s="6" t="n">
-        <v>0.120036984722875</v>
-      </c>
-      <c r="Q16" s="5" t="n">
-        <v>184</v>
-      </c>
-      <c r="R16" s="5" t="n">
-        <v>162589</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>139731</v>
-      </c>
-      <c r="T16" s="5" t="n">
-        <v>186471</v>
-      </c>
-      <c r="U16" s="6" t="n">
-        <v>0.08172024117959646</v>
-      </c>
-      <c r="V16" s="6" t="n">
-        <v>0.07023115283051036</v>
-      </c>
-      <c r="W16" s="6" t="n">
-        <v>0.09372373164521662</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>143</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>150510</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>126114</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>177252</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0.1332370695279063</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>0.1116410799304039</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>0.156910260663195</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>169</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>130643</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>113594</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>151895</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>0.1519201831486876</v>
-      </c>
-      <c r="O17" s="6" t="n">
-        <v>0.132095310712544</v>
-      </c>
-      <c r="P17" s="6" t="n">
-        <v>0.1766332711069566</v>
-      </c>
-      <c r="Q17" s="5" t="n">
-        <v>312</v>
-      </c>
-      <c r="R17" s="5" t="n">
-        <v>281152</v>
-      </c>
-      <c r="S17" s="5" t="n">
-        <v>249928</v>
-      </c>
-      <c r="T17" s="5" t="n">
-        <v>314264</v>
-      </c>
-      <c r="U17" s="6" t="n">
-        <v>0.1413123373114539</v>
-      </c>
-      <c r="V17" s="6" t="n">
-        <v>0.1256181418043855</v>
-      </c>
-      <c r="W17" s="6" t="n">
-        <v>0.157954947849398</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>901</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>902951</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>870739</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>930398</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0.7993273767533354</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>0.7708116879537368</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>0.8236242603495474</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>947</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>642889</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>617901</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>663221</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>0.7475949022913034</v>
-      </c>
-      <c r="O18" s="6" t="n">
-        <v>0.718536943655713</v>
-      </c>
-      <c r="P18" s="6" t="n">
-        <v>0.7712386322781197</v>
-      </c>
-      <c r="Q18" s="5" t="n">
-        <v>1848</v>
-      </c>
-      <c r="R18" s="5" t="n">
-        <v>1545840</v>
-      </c>
-      <c r="S18" s="5" t="n">
-        <v>1507317</v>
-      </c>
-      <c r="T18" s="5" t="n">
-        <v>1581968</v>
-      </c>
-      <c r="U18" s="6" t="n">
-        <v>0.7769674215089496</v>
-      </c>
-      <c r="V18" s="6" t="n">
-        <v>0.7576047690183118</v>
-      </c>
-      <c r="W18" s="6" t="n">
-        <v>0.7951256427103515</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>1116</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1129639</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>1129639</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>1129639</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>1228</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>859943</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>859943</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>859943</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>2344</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>1989582</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>1989582</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>1989582</v>
-      </c>
-      <c r="U19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Grupo VII</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>45</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>47135</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>34866</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>66548</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>0.08298989969136919</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>0.06138794079175302</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>0.1171691277843041</v>
-      </c>
-      <c r="J20" s="5" t="n">
-        <v>92</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>69014</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>56203</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>85529</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>0.08336281660162587</v>
-      </c>
-      <c r="O20" s="6" t="n">
-        <v>0.06788801084138679</v>
-      </c>
-      <c r="P20" s="6" t="n">
-        <v>0.1033108729133896</v>
-      </c>
-      <c r="Q20" s="5" t="n">
-        <v>137</v>
-      </c>
-      <c r="R20" s="5" t="n">
-        <v>116149</v>
-      </c>
-      <c r="S20" s="5" t="n">
-        <v>97509</v>
-      </c>
-      <c r="T20" s="5" t="n">
-        <v>139879</v>
-      </c>
-      <c r="U20" s="6" t="n">
-        <v>0.08321107766984293</v>
-      </c>
-      <c r="V20" s="6" t="n">
-        <v>0.06985701398837302</v>
-      </c>
-      <c r="W20" s="6" t="n">
-        <v>0.1002112977100841</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>72</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>73112</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>57178</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>90693</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0.1287266147283023</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0.1006717782990117</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0.1596817051900557</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>182</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>123398</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>107273</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>140721</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>0.149053759636665</v>
-      </c>
-      <c r="O21" s="6" t="n">
-        <v>0.129576752012043</v>
-      </c>
-      <c r="P21" s="6" t="n">
-        <v>0.1699784282131832</v>
-      </c>
-      <c r="Q21" s="5" t="n">
-        <v>254</v>
-      </c>
-      <c r="R21" s="5" t="n">
-        <v>196510</v>
-      </c>
-      <c r="S21" s="5" t="n">
-        <v>175112</v>
-      </c>
-      <c r="T21" s="5" t="n">
-        <v>221689</v>
-      </c>
-      <c r="U21" s="6" t="n">
-        <v>0.1407826966471405</v>
-      </c>
-      <c r="V21" s="6" t="n">
-        <v>0.1254528439504152</v>
-      </c>
-      <c r="W21" s="6" t="n">
-        <v>0.1588215461522658</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>430</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>447717</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>425063</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>468614</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>0.7882834855803287</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>0.7483973554963439</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>0.8250768681018162</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>635464</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>614222</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>654714</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>0.7675834237617092</v>
-      </c>
-      <c r="O22" s="6" t="n">
-        <v>0.7419255260269793</v>
-      </c>
-      <c r="P22" s="6" t="n">
-        <v>0.7908359093755236</v>
-      </c>
-      <c r="Q22" s="5" t="n">
-        <v>1441</v>
-      </c>
-      <c r="R22" s="5" t="n">
-        <v>1083181</v>
-      </c>
-      <c r="S22" s="5" t="n">
-        <v>1051181</v>
-      </c>
-      <c r="T22" s="5" t="n">
-        <v>1109823</v>
-      </c>
-      <c r="U22" s="6" t="n">
-        <v>0.7760062256830165</v>
-      </c>
-      <c r="V22" s="6" t="n">
-        <v>0.753081204566493</v>
-      </c>
-      <c r="W22" s="6" t="n">
-        <v>0.7950933651147136</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>547</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>567964</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>567964</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>567964</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>1285</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>827876</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>827876</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>827876</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>1832</v>
-      </c>
-      <c r="R23" s="5" t="n">
-        <v>1395840</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>1395840</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>1395840</v>
-      </c>
-      <c r="U23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>No ha trabajado</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>18411</v>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>8952</v>
-      </c>
-      <c r="F24" s="5" t="n">
-        <v>34801</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>0.0776084965522869</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>0.03773418873370256</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>0.1466991214139041</v>
-      </c>
-      <c r="J24" s="5" t="n">
-        <v>63</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>50788</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>37572</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>65035</v>
-      </c>
-      <c r="N24" s="6" t="n">
-        <v>0.06015535615647824</v>
-      </c>
-      <c r="O24" s="6" t="n">
-        <v>0.04450139336385239</v>
-      </c>
-      <c r="P24" s="6" t="n">
-        <v>0.077029932700967</v>
-      </c>
-      <c r="Q24" s="5" t="n">
-        <v>72</v>
-      </c>
-      <c r="R24" s="5" t="n">
-        <v>69199</v>
-      </c>
-      <c r="S24" s="5" t="n">
-        <v>53031</v>
-      </c>
-      <c r="T24" s="5" t="n">
-        <v>90052</v>
-      </c>
-      <c r="U24" s="6" t="n">
-        <v>0.06398368324637412</v>
-      </c>
-      <c r="V24" s="6" t="n">
-        <v>0.04903426131869659</v>
-      </c>
-      <c r="W24" s="6" t="n">
-        <v>0.08326487219502181</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>16943</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>6852</v>
-      </c>
-      <c r="F25" s="5" t="n">
-        <v>34961</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <v>0.07141953382598849</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <v>0.02888496931339305</v>
-      </c>
-      <c r="I25" s="6" t="n">
-        <v>0.1473749229048484</v>
-      </c>
-      <c r="J25" s="5" t="n">
-        <v>141</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>104350</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>87969</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>124997</v>
-      </c>
-      <c r="N25" s="6" t="n">
-        <v>0.1235958339795658</v>
-      </c>
-      <c r="O25" s="6" t="n">
-        <v>0.104193863237239</v>
-      </c>
-      <c r="P25" s="6" t="n">
-        <v>0.1480515258834185</v>
-      </c>
-      <c r="Q25" s="5" t="n">
-        <v>148</v>
-      </c>
-      <c r="R25" s="5" t="n">
-        <v>121292</v>
-      </c>
-      <c r="S25" s="5" t="n">
-        <v>100958</v>
-      </c>
-      <c r="T25" s="5" t="n">
-        <v>143351</v>
-      </c>
-      <c r="U25" s="6" t="n">
-        <v>0.1121510201066168</v>
-      </c>
-      <c r="V25" s="6" t="n">
-        <v>0.09334966027087428</v>
-      </c>
-      <c r="W25" s="6" t="n">
-        <v>0.1325476455137584</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>201874</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>181308</v>
-      </c>
-      <c r="F26" s="5" t="n">
-        <v>216344</v>
-      </c>
-      <c r="G26" s="6" t="n">
-        <v>0.8509719696217246</v>
-      </c>
-      <c r="H26" s="6" t="n">
-        <v>0.7642794371780375</v>
-      </c>
-      <c r="I26" s="6" t="n">
-        <v>0.9119645405522959</v>
-      </c>
-      <c r="J26" s="5" t="n">
-        <v>955</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>689143</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>666280</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>710943</v>
-      </c>
-      <c r="N26" s="6" t="n">
-        <v>0.8162488098639559</v>
-      </c>
-      <c r="O26" s="6" t="n">
-        <v>0.789169087843994</v>
-      </c>
-      <c r="P26" s="6" t="n">
-        <v>0.842069581827483</v>
-      </c>
-      <c r="Q26" s="5" t="n">
-        <v>1051</v>
-      </c>
-      <c r="R26" s="5" t="n">
-        <v>891018</v>
-      </c>
-      <c r="S26" s="5" t="n">
-        <v>864642</v>
-      </c>
-      <c r="T26" s="5" t="n">
-        <v>917395</v>
-      </c>
-      <c r="U26" s="6" t="n">
-        <v>0.8238652966470091</v>
-      </c>
-      <c r="V26" s="6" t="n">
-        <v>0.7994774090036061</v>
-      </c>
-      <c r="W26" s="6" t="n">
-        <v>0.8482549465199213</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>112</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>237228</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>237228</v>
-      </c>
-      <c r="F27" s="5" t="n">
-        <v>237228</v>
-      </c>
-      <c r="G27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5" t="n">
-        <v>1159</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>844281</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>844281</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>844281</v>
-      </c>
-      <c r="N27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="5" t="n">
-        <v>1271</v>
-      </c>
-      <c r="R27" s="5" t="n">
-        <v>1081509</v>
-      </c>
-      <c r="S27" s="5" t="n">
-        <v>1081509</v>
-      </c>
-      <c r="T27" s="5" t="n">
-        <v>1081509</v>
-      </c>
-      <c r="U27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>262</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>286094</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>254279</v>
-      </c>
-      <c r="F28" s="5" t="n">
-        <v>323403</v>
-      </c>
-      <c r="G28" s="6" t="n">
-        <v>0.08317051762247142</v>
-      </c>
-      <c r="H28" s="6" t="n">
-        <v>0.07392154707124089</v>
-      </c>
-      <c r="I28" s="6" t="n">
-        <v>0.09401654489166743</v>
-      </c>
-      <c r="J28" s="5" t="n">
-        <v>444</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>333137</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>300594</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>364991</v>
-      </c>
-      <c r="N28" s="6" t="n">
-        <v>0.09178038369348021</v>
-      </c>
-      <c r="O28" s="6" t="n">
-        <v>0.08281478625503777</v>
-      </c>
-      <c r="P28" s="6" t="n">
-        <v>0.1005561398294764</v>
-      </c>
-      <c r="Q28" s="5" t="n">
-        <v>706</v>
-      </c>
-      <c r="R28" s="5" t="n">
-        <v>619231</v>
-      </c>
-      <c r="S28" s="5" t="n">
-        <v>572997</v>
-      </c>
-      <c r="T28" s="5" t="n">
-        <v>667589</v>
-      </c>
-      <c r="U28" s="6" t="n">
-        <v>0.08759106990217376</v>
-      </c>
-      <c r="V28" s="6" t="n">
-        <v>0.08105122844284893</v>
-      </c>
-      <c r="W28" s="6" t="n">
-        <v>0.09443134657632207</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>423</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>449934</v>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>405918</v>
-      </c>
-      <c r="F29" s="5" t="n">
-        <v>494912</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>0.1308003836967279</v>
-      </c>
-      <c r="H29" s="6" t="n">
-        <v>0.1180045310663857</v>
-      </c>
-      <c r="I29" s="6" t="n">
-        <v>0.1438762247740327</v>
-      </c>
-      <c r="J29" s="5" t="n">
-        <v>706</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>515026</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>476925</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>554435</v>
-      </c>
-      <c r="N29" s="6" t="n">
-        <v>0.1418914876403851</v>
-      </c>
-      <c r="O29" s="6" t="n">
-        <v>0.1313944210672153</v>
-      </c>
-      <c r="P29" s="6" t="n">
-        <v>0.1527488757166514</v>
-      </c>
-      <c r="Q29" s="5" t="n">
-        <v>1129</v>
-      </c>
-      <c r="R29" s="5" t="n">
-        <v>964960</v>
-      </c>
-      <c r="S29" s="5" t="n">
-        <v>908869</v>
-      </c>
-      <c r="T29" s="5" t="n">
-        <v>1028488</v>
-      </c>
-      <c r="U29" s="6" t="n">
-        <v>0.1364948746932417</v>
-      </c>
-      <c r="V29" s="6" t="n">
-        <v>0.1285608124481616</v>
-      </c>
-      <c r="W29" s="6" t="n">
-        <v>0.1454810589771538</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>2612</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>2703821</v>
-      </c>
-      <c r="E30" s="5" t="n">
-        <v>2649691</v>
-      </c>
-      <c r="F30" s="5" t="n">
-        <v>2753546</v>
-      </c>
-      <c r="G30" s="6" t="n">
-        <v>0.7860290986808007</v>
-      </c>
-      <c r="H30" s="6" t="n">
-        <v>0.7702929241245968</v>
-      </c>
-      <c r="I30" s="6" t="n">
-        <v>0.8004844422428622</v>
-      </c>
-      <c r="J30" s="5" t="n">
-        <v>4085</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>2781556</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>2736498</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>2826908</v>
-      </c>
-      <c r="N30" s="6" t="n">
-        <v>0.7663281286661345</v>
-      </c>
-      <c r="O30" s="6" t="n">
-        <v>0.7539146102689416</v>
-      </c>
-      <c r="P30" s="6" t="n">
-        <v>0.7788227240411543</v>
-      </c>
-      <c r="Q30" s="5" t="n">
-        <v>6697</v>
-      </c>
-      <c r="R30" s="5" t="n">
-        <v>5485377</v>
-      </c>
-      <c r="S30" s="5" t="n">
-        <v>5410710</v>
-      </c>
-      <c r="T30" s="5" t="n">
-        <v>5557648</v>
-      </c>
-      <c r="U30" s="6" t="n">
-        <v>0.7759140554045845</v>
-      </c>
-      <c r="V30" s="6" t="n">
-        <v>0.7653522318823778</v>
-      </c>
-      <c r="W30" s="6" t="n">
-        <v>0.7861369133075375</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="n">
-        <v>3297</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>3439849</v>
-      </c>
-      <c r="E31" s="5" t="n">
-        <v>3439849</v>
-      </c>
-      <c r="F31" s="5" t="n">
-        <v>3439849</v>
-      </c>
-      <c r="G31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="5" t="n">
-        <v>5235</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>3629719</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>3629719</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>3629719</v>
-      </c>
-      <c r="N31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="5" t="n">
-        <v>8532</v>
-      </c>
-      <c r="R31" s="5" t="n">
-        <v>7069568</v>
-      </c>
-      <c r="S31" s="5" t="n">
-        <v>7069568</v>
-      </c>
-      <c r="T31" s="5" t="n">
-        <v>7069568</v>
-      </c>
-      <c r="U31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W31" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/data/trans_orig/P05A05-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>135773</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>117949</v>
+        <v>115814</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>157094</v>
+        <v>157163</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2890820756736797</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2511319533746088</v>
+        <v>0.2465857241421496</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3344768350343674</v>
+        <v>0.334623006001553</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -764,19 +764,19 @@
         <v>80626</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65393</v>
+        <v>66276</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96417</v>
+        <v>96548</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2628988209599798</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2132298500821656</v>
+        <v>0.2161085695970844</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3143901194895942</v>
+        <v>0.3148177392798961</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>207</v>
@@ -785,19 +785,19 @@
         <v>216399</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>192353</v>
+        <v>192129</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>241741</v>
+        <v>239268</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2787389579490263</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2477649469727233</v>
+        <v>0.2474767582573176</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.31138139192904</v>
+        <v>0.3081961544103315</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>249162</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>226005</v>
+        <v>226144</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>270717</v>
+        <v>270795</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5305039861697041</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4811987305237621</v>
+        <v>0.4814952254410996</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5763977412600492</v>
+        <v>0.5765637880200531</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>162</v>
@@ -835,19 +835,19 @@
         <v>167079</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>150134</v>
+        <v>149503</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>184898</v>
+        <v>185367</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5447992338948452</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4895460882399137</v>
+        <v>0.4874876664626733</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6029013085212398</v>
+        <v>0.6044313858926401</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>403</v>
@@ -856,19 +856,19 @@
         <v>416241</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>388469</v>
+        <v>387740</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>443832</v>
+        <v>442986</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5361510087320617</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5003783921033976</v>
+        <v>0.4994395628233925</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5716903009899545</v>
+        <v>0.5706000372605939</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>84735</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>68468</v>
+        <v>68432</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>103389</v>
+        <v>102492</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1804139381566162</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1457796742554378</v>
+        <v>0.1457020297690379</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2201316398693603</v>
+        <v>0.2182211350637328</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>59</v>
@@ -906,19 +906,19 @@
         <v>58975</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46527</v>
+        <v>45483</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>72930</v>
+        <v>73263</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.192301945145175</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1517134587155733</v>
+        <v>0.1483066379862916</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2378043002426401</v>
+        <v>0.2388899234463648</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>139</v>
@@ -927,19 +927,19 @@
         <v>143710</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>122906</v>
+        <v>124135</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>165693</v>
+        <v>166412</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1851100333189121</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1583119257042142</v>
+        <v>0.1598960596022658</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2134248839916511</v>
+        <v>0.2143512163587496</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>115263</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>97022</v>
+        <v>98213</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>131555</v>
+        <v>134792</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3141253621506025</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.264412037951854</v>
+        <v>0.2676590125622047</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3585261451254074</v>
+        <v>0.3673479845055</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>113</v>
@@ -1052,19 +1052,19 @@
         <v>114774</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>96192</v>
+        <v>97246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>132082</v>
+        <v>132080</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3108281095881614</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2605041914730427</v>
+        <v>0.2633583308874589</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3577024005949396</v>
+        <v>0.3576948046540718</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>228</v>
@@ -1073,19 +1073,19 @@
         <v>230037</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>203867</v>
+        <v>207626</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>255652</v>
+        <v>256872</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3124715443768064</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2769228906446678</v>
+        <v>0.2820285996905407</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3472652833508703</v>
+        <v>0.34892180481261</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>178041</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>159554</v>
+        <v>159126</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>196583</v>
+        <v>197510</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4852113422181453</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4348310647701302</v>
+        <v>0.4336629995656766</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5357435529908204</v>
+        <v>0.5382699221558771</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>188</v>
@@ -1123,19 +1123,19 @@
         <v>193511</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>174771</v>
+        <v>173491</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>212474</v>
+        <v>210789</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5240627667890649</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4733110621895765</v>
+        <v>0.4698452639790675</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5754173259133981</v>
+        <v>0.5708528472403417</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>357</v>
@@ -1144,19 +1144,19 @@
         <v>371552</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>343726</v>
+        <v>342847</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>399025</v>
+        <v>399015</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5046982256994383</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4669004419201621</v>
+        <v>0.4657062827259676</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5420153686902077</v>
+        <v>0.542002278311594</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>73630</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58492</v>
+        <v>58224</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90473</v>
+        <v>91371</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2006632956312522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.15940733989844</v>
+        <v>0.1586766326347064</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2465637891107876</v>
+        <v>0.2490127840771899</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -1194,19 +1194,19 @@
         <v>60967</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47115</v>
+        <v>46846</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76336</v>
+        <v>75169</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1651091236227737</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1275952813879164</v>
+        <v>0.1268686058822496</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2067309893104673</v>
+        <v>0.2035714029948979</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>126</v>
@@ -1215,19 +1215,19 @@
         <v>134597</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112695</v>
+        <v>112869</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159231</v>
+        <v>157079</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1828302299237552</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1530799646773067</v>
+        <v>0.1533152823360355</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2162915235632813</v>
+        <v>0.2133677942770801</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>172131</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>148537</v>
+        <v>152393</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>192801</v>
+        <v>193536</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3184912983221467</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2748357320247625</v>
+        <v>0.2819701298973983</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3567371335246072</v>
+        <v>0.3580977917472355</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>51</v>
@@ -1340,19 +1340,19 @@
         <v>52124</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40186</v>
+        <v>40130</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>64066</v>
+        <v>64615</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3106638369985829</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2395113557462138</v>
+        <v>0.2391794877686583</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3818381051720508</v>
+        <v>0.3851137057515325</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>218</v>
@@ -1361,19 +1361,19 @@
         <v>224255</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>199859</v>
+        <v>200003</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>251732</v>
+        <v>249026</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.316636970590567</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2821912049615881</v>
+        <v>0.2823952555117795</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3554330571359481</v>
+        <v>0.3516127410744682</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>271259</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>248568</v>
+        <v>249013</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>292340</v>
+        <v>293338</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5019072250294486</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4599212610297488</v>
+        <v>0.460745981110213</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5409121072955612</v>
+        <v>0.5427584866214374</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -1411,19 +1411,19 @@
         <v>84073</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69948</v>
+        <v>71001</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96564</v>
+        <v>97196</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5010871693875777</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4169002864419356</v>
+        <v>0.4231764496144239</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5755322608204858</v>
+        <v>0.5793014104543139</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>351</v>
@@ -1432,19 +1432,19 @@
         <v>355333</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>330443</v>
+        <v>330520</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>384224</v>
+        <v>380465</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5017129536232672</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4665699386129011</v>
+        <v>0.4666788646188174</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5425058990714374</v>
+        <v>0.5371979847514088</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>97067</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>80442</v>
+        <v>78697</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117468</v>
+        <v>114558</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1796014766484046</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1488415078234269</v>
+        <v>0.1456125760366392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2173486407082529</v>
+        <v>0.2119657255753099</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -1482,19 +1482,19 @@
         <v>31585</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22640</v>
+        <v>22188</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42153</v>
+        <v>42618</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1882489936138393</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1349387217529817</v>
+        <v>0.1322445765015229</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2512344262366976</v>
+        <v>0.2540066577279393</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>125</v>
@@ -1503,19 +1503,19 @@
         <v>128652</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>108798</v>
+        <v>108909</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>149738</v>
+        <v>150324</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1816500757861658</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1536179144842546</v>
+        <v>0.1537743561507244</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.211422977534882</v>
+        <v>0.212249733676776</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>416704</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>383469</v>
+        <v>382814</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>450074</v>
+        <v>451591</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.337031772525076</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.310151233361899</v>
+        <v>0.309621242922848</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3640212613403369</v>
+        <v>0.365248425156773</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>220</v>
@@ -1628,19 +1628,19 @@
         <v>230403</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>206366</v>
+        <v>205997</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>257580</v>
+        <v>257737</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3225649289594174</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2889130015282478</v>
+        <v>0.2883965960861695</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3606124920677204</v>
+        <v>0.360832477829502</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>625</v>
@@ -1649,19 +1649,19 @@
         <v>647108</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>604567</v>
+        <v>606228</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>691278</v>
+        <v>693466</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3317344143888892</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3099259265137032</v>
+        <v>0.3107776860566093</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.354377584389964</v>
+        <v>0.3554994137276868</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>596799</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>562649</v>
+        <v>562584</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>631023</v>
+        <v>632482</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4826931755180603</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4550719243543075</v>
+        <v>0.4550194893904935</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5103734111780497</v>
+        <v>0.5115535588019772</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>339</v>
@@ -1699,19 +1699,19 @@
         <v>347259</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>320776</v>
+        <v>320411</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>375140</v>
+        <v>374152</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4861635944896353</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4490862286192245</v>
+        <v>0.4485761850989604</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5251963210393985</v>
+        <v>0.523813174495728</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>935</v>
@@ -1720,19 +1720,19 @@
         <v>944059</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>899309</v>
+        <v>899691</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>986928</v>
+        <v>987284</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4839639469957232</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4610229986675267</v>
+        <v>0.4612190573484226</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5059404219853878</v>
+        <v>0.5061227080737494</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>222891</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>197393</v>
+        <v>196241</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>250152</v>
+        <v>251431</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1802750519568637</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1596520436987088</v>
+        <v>0.1587204450494079</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2023238024158688</v>
+        <v>0.2033583797926894</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>135</v>
@@ -1770,19 +1770,19 @@
         <v>136622</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>116289</v>
+        <v>115840</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>159732</v>
+        <v>157575</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1912714765509473</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1628048433153891</v>
+        <v>0.1621756717006266</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2236248489465717</v>
+        <v>0.2206054339842975</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>356</v>
@@ -1791,19 +1791,19 @@
         <v>359514</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>326378</v>
+        <v>326905</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>392929</v>
+        <v>394432</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1843016386153876</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1673146885389382</v>
+        <v>0.1675849918528376</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2014315724676646</v>
+        <v>0.2022024203515776</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>128315</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>110765</v>
+        <v>109703</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>147219</v>
+        <v>146328</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3676844289943813</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3173966633315738</v>
+        <v>0.3143541290093912</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4218542678367277</v>
+        <v>0.419300778305038</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>158</v>
@@ -1916,19 +1916,19 @@
         <v>165790</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>145325</v>
+        <v>144896</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>188725</v>
+        <v>189440</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2920325970389788</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2559857871574258</v>
+        <v>0.2552292178056191</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3324322913813604</v>
+        <v>0.3336928927506184</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>281</v>
@@ -1937,19 +1937,19 @@
         <v>294104</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>265268</v>
+        <v>264862</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>322901</v>
+        <v>323873</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3208329541622249</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2893761490142115</v>
+        <v>0.2889334915216951</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3522475176632232</v>
+        <v>0.353307701554889</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>149244</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>131423</v>
+        <v>130484</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>168042</v>
+        <v>167328</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4276567697965597</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3765904326613944</v>
+        <v>0.3739004755256667</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4815244821416665</v>
+        <v>0.4794779380037955</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>253</v>
@@ -1987,19 +1987,19 @@
         <v>264640</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>241009</v>
+        <v>239483</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>287495</v>
+        <v>288744</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4661538514108163</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4245296606106137</v>
+        <v>0.4218403035558987</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5064117606739886</v>
+        <v>0.5086126917340034</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>399</v>
@@ -2008,19 +2008,19 @@
         <v>413883</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>383950</v>
+        <v>383260</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>443806</v>
+        <v>443804</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4514981627112096</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4188443839893831</v>
+        <v>0.4180914879730865</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4841400031929687</v>
+        <v>0.4841377800968747</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>71422</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57267</v>
+        <v>57617</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88026</v>
+        <v>86404</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.204658801209059</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1640984280561017</v>
+        <v>0.1651016295574758</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2522381122818581</v>
+        <v>0.2475898154635473</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>127</v>
@@ -2058,19 +2058,19 @@
         <v>137280</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>117645</v>
+        <v>117600</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>159468</v>
+        <v>160799</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2418135515502049</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2072268666433458</v>
+        <v>0.2071485582352497</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2808972474754129</v>
+        <v>0.2832420610608409</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>197</v>
@@ -2079,19 +2079,19 @@
         <v>208702</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>185318</v>
+        <v>185223</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>238247</v>
+        <v>234904</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2276688831265656</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2021603497548822</v>
+        <v>0.2020570704368977</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2598995592798813</v>
+        <v>0.2562526651460602</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>102085</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>87281</v>
+        <v>84985</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>118307</v>
+        <v>118187</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3434249641640787</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2936225674610838</v>
+        <v>0.2858993487662377</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.397995810306104</v>
+        <v>0.3975939081953</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>402</v>
@@ -2204,19 +2204,19 @@
         <v>406021</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>372070</v>
+        <v>371217</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>441241</v>
+        <v>439514</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3267342240167196</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2994136669885519</v>
+        <v>0.2987270627241845</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3550769235548824</v>
+        <v>0.3536873211282636</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>505</v>
@@ -2225,19 +2225,19 @@
         <v>508106</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>474253</v>
+        <v>472997</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>543828</v>
+        <v>546646</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3299560963934202</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3079723373074069</v>
+        <v>0.3071566553400366</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3531535267337482</v>
+        <v>0.3549834536473003</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>151653</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>134283</v>
+        <v>134050</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>167203</v>
+        <v>168243</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.510176744330743</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4517432842796265</v>
+        <v>0.4509582415815312</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.562489903173545</v>
+        <v>0.5659853388359724</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>611</v>
@@ -2275,19 +2275,19 @@
         <v>615177</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>579040</v>
+        <v>579020</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>650770</v>
+        <v>647858</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4950470944751054</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4659667661235063</v>
+        <v>0.4659507221199136</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5236897876739799</v>
+        <v>0.5213468259279295</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>769</v>
@@ -2296,19 +2296,19 @@
         <v>766830</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>725424</v>
+        <v>729933</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>804143</v>
+        <v>803462</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4979676240926457</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4710793322979589</v>
+        <v>0.4740073661017266</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5221979316764106</v>
+        <v>0.5217559396395318</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>43518</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32354</v>
+        <v>32511</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>55879</v>
+        <v>56446</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1463982915051783</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1088409755920462</v>
+        <v>0.1093711066572375</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1879819555354826</v>
+        <v>0.1898899070799644</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>219</v>
@@ -2346,19 +2346,19 @@
         <v>221466</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>194678</v>
+        <v>196381</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>248901</v>
+        <v>247918</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.178218681508175</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1566615713478912</v>
+        <v>0.1580323397998397</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2002961130043618</v>
+        <v>0.1995050566199855</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>263</v>
@@ -2367,19 +2367,19 @@
         <v>264984</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>236129</v>
+        <v>239914</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>295961</v>
+        <v>298257</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.172076279513934</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1533386791572099</v>
+        <v>0.1557962574439835</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1921927750072298</v>
+        <v>0.193683169348653</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>1070272</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1013387</v>
+        <v>1015436</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1125030</v>
+        <v>1129541</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.328335106070419</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3108841265517678</v>
+        <v>0.3115128327319425</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3451336544565229</v>
+        <v>0.3465176221031347</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1021</v>
@@ -2492,19 +2492,19 @@
         <v>1049737</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>991346</v>
+        <v>990343</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1100826</v>
+        <v>1099931</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3116452613954029</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2943102050918719</v>
+        <v>0.294012331692636</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3268124350154281</v>
+        <v>0.3265466364514562</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2064</v>
@@ -2513,19 +2513,19 @@
         <v>2120009</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2042968</v>
+        <v>2033501</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2195752</v>
+        <v>2185265</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3198533532454144</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3082299556567233</v>
+        <v>0.3068016523393707</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3312810410600546</v>
+        <v>0.3296987390362138</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>1596158</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1537983</v>
+        <v>1542613</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1657599</v>
+        <v>1659056</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4896652322539857</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4718183084707039</v>
+        <v>0.4732388855153825</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5085139748755095</v>
+        <v>0.5089609620543183</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1636</v>
@@ -2563,19 +2563,19 @@
         <v>1671740</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1616113</v>
+        <v>1616432</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1739208</v>
+        <v>1730352</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.496305037307302</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4797906577627767</v>
+        <v>0.4798851647315647</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.516334807704555</v>
+        <v>0.5137057156775737</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3214</v>
@@ -2584,19 +2584,19 @@
         <v>3267898</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3193315</v>
+        <v>3183472</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3350449</v>
+        <v>3353705</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4930395707433516</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4817868711743094</v>
+        <v>0.4803018513489988</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5054942548377829</v>
+        <v>0.505985476790114</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>593263</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>549810</v>
+        <v>548215</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>639488</v>
+        <v>638049</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1819996616755953</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1686692827037933</v>
+        <v>0.1681799743975587</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1961804012228045</v>
+        <v>0.1957391054973377</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>630</v>
@@ -2634,19 +2634,19 @@
         <v>646895</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>597354</v>
+        <v>600676</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>686481</v>
+        <v>694879</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1920497012972951</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1773419069323562</v>
+        <v>0.1783283983824832</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2038021006342197</v>
+        <v>0.2062951358795137</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1206</v>
@@ -2655,19 +2655,19 @@
         <v>1240158</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1176972</v>
+        <v>1169638</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1303077</v>
+        <v>1300458</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.187107076011234</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1775740111612986</v>
+        <v>0.1764674447465218</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1965998639673932</v>
+        <v>0.1962047395271626</v>
       </c>
     </row>
     <row r="31">
@@ -3001,19 +3001,19 @@
         <v>121908</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>103647</v>
+        <v>102750</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>142222</v>
+        <v>143524</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2794862066198361</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2376217019967096</v>
+        <v>0.2355641758046474</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3260580630215278</v>
+        <v>0.3290427261022507</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>91</v>
@@ -3022,19 +3022,19 @@
         <v>102091</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84944</v>
+        <v>84434</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>121285</v>
+        <v>120133</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3267606713321548</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2718767564926738</v>
+        <v>0.2702452949744443</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3881942189374554</v>
+        <v>0.3845067657815139</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>203</v>
@@ -3043,19 +3043,19 @@
         <v>223999</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>199437</v>
+        <v>200796</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>252946</v>
+        <v>252067</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2992160446142094</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2664068280638553</v>
+        <v>0.2682209426774277</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3378826941112578</v>
+        <v>0.3367092120873738</v>
       </c>
     </row>
     <row r="5">
@@ -3072,19 +3072,19 @@
         <v>187426</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>165108</v>
+        <v>167874</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>209464</v>
+        <v>210742</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4296926297200263</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3785267011667997</v>
+        <v>0.384867356139187</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4802160921791728</v>
+        <v>0.4831478748444202</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>117</v>
@@ -3093,19 +3093,19 @@
         <v>130281</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>111407</v>
+        <v>112527</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>148734</v>
+        <v>149462</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4169870217342286</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3565781770509031</v>
+        <v>0.3601635151138292</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4760497868283618</v>
+        <v>0.4783810260802681</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>293</v>
@@ -3114,19 +3114,19 @@
         <v>317707</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>289787</v>
+        <v>288214</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>344064</v>
+        <v>346476</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4243899871897454</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3870954204947817</v>
+        <v>0.384993125660286</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4595980453325149</v>
+        <v>0.4628202292165555</v>
       </c>
     </row>
     <row r="6">
@@ -3143,19 +3143,19 @@
         <v>126852</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>108115</v>
+        <v>106610</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>147485</v>
+        <v>147825</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2908211636601377</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2478642242170518</v>
+        <v>0.2444138806066575</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3381242695693621</v>
+        <v>0.3389040463531557</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>73</v>
@@ -3164,19 +3164,19 @@
         <v>80062</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>64263</v>
+        <v>65257</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>97306</v>
+        <v>97442</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2562523069336167</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2056842249609057</v>
+        <v>0.2088657706186177</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3114457369424741</v>
+        <v>0.3118788014883405</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>188</v>
@@ -3185,19 +3185,19 @@
         <v>206914</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>183437</v>
+        <v>180779</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>234796</v>
+        <v>236171</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2763939681960452</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2450331622804998</v>
+        <v>0.2414830415620723</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3136382088660057</v>
+        <v>0.3154756381994365</v>
       </c>
     </row>
     <row r="7">
@@ -3289,19 +3289,19 @@
         <v>123227</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104760</v>
+        <v>102911</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>144005</v>
+        <v>142960</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2958315280921959</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2514987861328341</v>
+        <v>0.2470601729995424</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3457141625025584</v>
+        <v>0.3432059349400116</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>96</v>
@@ -3310,19 +3310,19 @@
         <v>109780</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>92656</v>
+        <v>92384</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>129152</v>
+        <v>129419</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3274752728425006</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2763944771265937</v>
+        <v>0.275585017843138</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3852624781322053</v>
+        <v>0.3860605319276393</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>208</v>
@@ -3331,19 +3331,19 @@
         <v>233006</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>205609</v>
+        <v>205773</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>261371</v>
+        <v>257744</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3099420860553676</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2734992135843768</v>
+        <v>0.2737169594845545</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3476723823315094</v>
+        <v>0.3428481903174768</v>
       </c>
     </row>
     <row r="9">
@@ -3360,19 +3360,19 @@
         <v>181353</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>161339</v>
+        <v>162076</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>202658</v>
+        <v>201625</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4353774577560474</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3873286105794419</v>
+        <v>0.3890984239212231</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4865225792724611</v>
+        <v>0.4840433381902144</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>134</v>
@@ -3381,19 +3381,19 @@
         <v>145869</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>126635</v>
+        <v>123708</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>163834</v>
+        <v>163785</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4351301513028859</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.377756571000155</v>
+        <v>0.3690241729360459</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4887200677426818</v>
+        <v>0.488573973494274</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>296</v>
@@ -3402,19 +3402,19 @@
         <v>327222</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>299880</v>
+        <v>300859</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>356104</v>
+        <v>355906</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4352671790241989</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3988969188761524</v>
+        <v>0.4001987380370196</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4736855180142745</v>
+        <v>0.4734218780906556</v>
       </c>
     </row>
     <row r="10">
@@ -3431,19 +3431,19 @@
         <v>111963</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>93730</v>
+        <v>90662</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>132570</v>
+        <v>130560</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2687910141517567</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2250178839647568</v>
+        <v>0.2176522734298037</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3182612833409439</v>
+        <v>0.313435835569068</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -3452,19 +3452,19 @@
         <v>79582</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63883</v>
+        <v>65171</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>98661</v>
+        <v>96293</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2373945758546135</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1905651396202978</v>
+        <v>0.1944075163661526</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.294307882638618</v>
+        <v>0.2872446961749403</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -3473,19 +3473,19 @@
         <v>191545</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>166100</v>
+        <v>167323</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>216986</v>
+        <v>217974</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2547907349204335</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2209437542054369</v>
+        <v>0.2225709368133575</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2886324546276349</v>
+        <v>0.2899460033267599</v>
       </c>
     </row>
     <row r="11">
@@ -3577,19 +3577,19 @@
         <v>203652</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>176754</v>
+        <v>179912</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>226395</v>
+        <v>226881</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3248842402602109</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.281974447571876</v>
+        <v>0.2870126604676009</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3611661902942001</v>
+        <v>0.3619411478556082</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>87</v>
@@ -3598,19 +3598,19 @@
         <v>94970</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>77491</v>
+        <v>79310</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>108598</v>
+        <v>109323</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3697304167036237</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3016822741574928</v>
+        <v>0.3087654272039299</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4227889827584126</v>
+        <v>0.4256102422049762</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>278</v>
@@ -3619,19 +3619,19 @@
         <v>298621</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>270059</v>
+        <v>268289</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>329853</v>
+        <v>329414</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.337919441848182</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3055984251885779</v>
+        <v>0.3035958654546184</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3732609139659803</v>
+        <v>0.3727646111466101</v>
       </c>
     </row>
     <row r="13">
@@ -3648,19 +3648,19 @@
         <v>257387</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>234304</v>
+        <v>232120</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>283872</v>
+        <v>280641</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4106071213013733</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3737828704559052</v>
+        <v>0.3702988382533733</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4528584039252525</v>
+        <v>0.4477052941832588</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>99</v>
@@ -3669,19 +3669,19 @@
         <v>103548</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89302</v>
+        <v>88893</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>120192</v>
+        <v>119476</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4031260199433194</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3476653037086017</v>
+        <v>0.3460739793837845</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4679226434077231</v>
+        <v>0.4651355159604531</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>338</v>
@@ -3690,19 +3690,19 @@
         <v>360934</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>327472</v>
+        <v>330416</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>390111</v>
+        <v>392958</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4084326290249732</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3705670147065547</v>
+        <v>0.3738976132210626</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4414490530888424</v>
+        <v>0.4446705681071896</v>
       </c>
     </row>
     <row r="14">
@@ -3719,19 +3719,19 @@
         <v>165806</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>143605</v>
+        <v>142577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>190399</v>
+        <v>187970</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2645086384384158</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2290927309182888</v>
+        <v>0.2274524035416203</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.303743022554406</v>
+        <v>0.2998671086740887</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -3740,19 +3740,19 @@
         <v>58345</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45692</v>
+        <v>45260</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73158</v>
+        <v>73223</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2271435633530569</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1778855348504479</v>
+        <v>0.1762044800137637</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2848144341052808</v>
+        <v>0.28506724068219</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>214</v>
@@ -3761,19 +3761,19 @@
         <v>224150</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>199648</v>
+        <v>197175</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>253472</v>
+        <v>250054</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2536479291268449</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2259216613681286</v>
+        <v>0.2231223362451339</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2868285828009632</v>
+        <v>0.2829601180885203</v>
       </c>
     </row>
     <row r="15">
@@ -3865,19 +3865,19 @@
         <v>374222</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>343408</v>
+        <v>341960</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>407864</v>
+        <v>408328</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3253686935138535</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2985774767722468</v>
+        <v>0.2973184966987594</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3546188212654438</v>
+        <v>0.3550218746665471</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>246</v>
@@ -3886,19 +3886,19 @@
         <v>268828</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>241679</v>
+        <v>240674</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>297465</v>
+        <v>294935</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.35263101158993</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.317018082364218</v>
+        <v>0.3156996313583545</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.390194343191595</v>
+        <v>0.3868766844851956</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>591</v>
@@ -3907,19 +3907,19 @@
         <v>643050</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>602034</v>
+        <v>601214</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>688490</v>
+        <v>686977</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3362358569831739</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3147894225624844</v>
+        <v>0.3143605523001585</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.359995000740297</v>
+        <v>0.3592039702060143</v>
       </c>
     </row>
     <row r="17">
@@ -3936,19 +3936,19 @@
         <v>480597</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>445861</v>
+        <v>445480</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>516795</v>
+        <v>512555</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4178563327830845</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3876549065084462</v>
+        <v>0.3873241982250111</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4493295162694556</v>
+        <v>0.4456424229348595</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>307</v>
@@ -3957,19 +3957,19 @@
         <v>329289</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>300307</v>
+        <v>302823</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>358699</v>
+        <v>359223</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4319389495742431</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3939221951023023</v>
+        <v>0.3972230661248424</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4705171294650225</v>
+        <v>0.4712044701811201</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>754</v>
@@ -3978,19 +3978,19 @@
         <v>809885</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>768871</v>
+        <v>766892</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>856696</v>
+        <v>855387</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4234698722597445</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4020246426280304</v>
+        <v>0.4009897757038299</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4479459204123027</v>
+        <v>0.4472615667861355</v>
       </c>
     </row>
     <row r="18">
@@ -4007,19 +4007,19 @@
         <v>295329</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>267340</v>
+        <v>267901</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>325294</v>
+        <v>328597</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.256774973703062</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2324396822307153</v>
+        <v>0.2329271085473325</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2828276876672299</v>
+        <v>0.28569933295464</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>154</v>
@@ -4028,19 +4028,19 @@
         <v>164233</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>140921</v>
+        <v>142334</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>188671</v>
+        <v>188638</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2154300388358269</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1848512021735139</v>
+        <v>0.1867047661345835</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2474867020818645</v>
+        <v>0.2474427279600357</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>436</v>
@@ -4049,19 +4049,19 @@
         <v>459562</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>424143</v>
+        <v>420784</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>499317</v>
+        <v>496894</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2402942707570816</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2217744193279977</v>
+        <v>0.2200181104573765</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2610812089692922</v>
+        <v>0.2598142012301051</v>
       </c>
     </row>
     <row r="19">
@@ -4153,19 +4153,19 @@
         <v>187879</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>165159</v>
+        <v>163884</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>208374</v>
+        <v>210214</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3696634488592662</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3249598299153009</v>
+        <v>0.3224512791653349</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4099893771048089</v>
+        <v>0.4136094683594048</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>272</v>
@@ -4174,19 +4174,19 @@
         <v>291256</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>265496</v>
+        <v>264270</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>322606</v>
+        <v>318241</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3839665369616218</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3500065375691195</v>
+        <v>0.3483906064527995</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4252952693784221</v>
+        <v>0.4195409845202891</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>447</v>
@@ -4195,19 +4195,19 @@
         <v>479135</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>443622</v>
+        <v>441816</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>514071</v>
+        <v>513627</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3782280579551933</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3501943192532212</v>
+        <v>0.348768740362673</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4058069373051565</v>
+        <v>0.4054564894749357</v>
       </c>
     </row>
     <row r="21">
@@ -4224,19 +4224,19 @@
         <v>224619</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>203206</v>
+        <v>202295</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>246844</v>
+        <v>247912</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4419514788448766</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3998213718974341</v>
+        <v>0.3980288074421711</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4856801159069077</v>
+        <v>0.4877817067308463</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>276</v>
@@ -4245,19 +4245,19 @@
         <v>302415</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>273862</v>
+        <v>277567</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>328680</v>
+        <v>332554</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3986775315699055</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3610358760477412</v>
+        <v>0.3659193276071939</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4333031773859108</v>
+        <v>0.4384099394032575</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>494</v>
@@ -4266,19 +4266,19 @@
         <v>527034</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>492981</v>
+        <v>490386</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>563060</v>
+        <v>564321</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.416039281437182</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.389158643085293</v>
+        <v>0.3871095212076541</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4444787844118072</v>
+        <v>0.445473877995849</v>
       </c>
     </row>
     <row r="22">
@@ -4295,19 +4295,19 @@
         <v>95745</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>79092</v>
+        <v>78648</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>113531</v>
+        <v>112618</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1883850722958571</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.155618512105121</v>
+        <v>0.1547443833558921</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2233783855304964</v>
+        <v>0.2215826572867459</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>152</v>
@@ -4316,19 +4316,19 @@
         <v>164874</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>142855</v>
+        <v>143172</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>189168</v>
+        <v>188031</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2173559314684727</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1883268103962737</v>
+        <v>0.1887448178061048</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2493824410159428</v>
+        <v>0.2478840348680601</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>244</v>
@@ -4337,19 +4337,19 @@
         <v>260620</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>231895</v>
+        <v>230789</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>290910</v>
+        <v>291361</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2057326606076247</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1830578240183456</v>
+        <v>0.182184224895548</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2296439878322125</v>
+        <v>0.2299997025945326</v>
       </c>
     </row>
     <row r="23">
@@ -4441,19 +4441,19 @@
         <v>90088</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>74688</v>
+        <v>75587</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>105130</v>
+        <v>105362</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3375558319763597</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.279854554228534</v>
+        <v>0.2832210355503461</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3939190872774628</v>
+        <v>0.394787072814236</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>279</v>
@@ -4462,19 +4462,19 @@
         <v>297318</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>265348</v>
+        <v>268167</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>327108</v>
+        <v>327032</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2692585747412038</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.240305835148661</v>
+        <v>0.2428588358696578</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2962364310948546</v>
+        <v>0.2961680954244398</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>367</v>
@@ -4483,19 +4483,19 @@
         <v>387406</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>354059</v>
+        <v>354173</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>419538</v>
+        <v>423603</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2825525770286232</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2582311172050051</v>
+        <v>0.2583143246168612</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.30598813456216</v>
+        <v>0.3089530644759357</v>
       </c>
     </row>
     <row r="25">
@@ -4512,19 +4512,19 @@
         <v>116813</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>101351</v>
+        <v>99938</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>134957</v>
+        <v>132643</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4376971009289057</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3797611686704971</v>
+        <v>0.3744656286155938</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5056816946819906</v>
+        <v>0.4970103605284967</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>469</v>
@@ -4533,19 +4533,19 @@
         <v>500024</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>466048</v>
+        <v>469951</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>532762</v>
+        <v>534610</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4528337848629352</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4220647139132676</v>
+        <v>0.4255993121420467</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4824816886473097</v>
+        <v>0.4841559416308058</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>586</v>
@@ -4554,19 +4554,19 @@
         <v>616837</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>582404</v>
+        <v>575555</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>654267</v>
+        <v>653188</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4498874423743917</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4247739071029998</v>
+        <v>0.4197788185755807</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4771866552277382</v>
+        <v>0.4763994743936742</v>
       </c>
     </row>
     <row r="26">
@@ -4583,19 +4583,19 @@
         <v>59981</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>47610</v>
+        <v>47415</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>74013</v>
+        <v>74805</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2247470670947346</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1783925715907719</v>
+        <v>0.1776612081875194</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2773234865553689</v>
+        <v>0.2802911828828229</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>291</v>
@@ -4604,19 +4604,19 @@
         <v>306869</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>277510</v>
+        <v>278188</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>338645</v>
+        <v>336195</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.277907640395861</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2513192708568703</v>
+        <v>0.2519333229840107</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.306684975411266</v>
+        <v>0.304466345286946</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>351</v>
@@ -4625,19 +4625,19 @@
         <v>366849</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>330978</v>
+        <v>333561</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>397016</v>
+        <v>400260</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2675599805969852</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2413971142287418</v>
+        <v>0.2432812418999543</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2895621905741069</v>
+        <v>0.2919275500049147</v>
       </c>
     </row>
     <row r="27">
@@ -4729,19 +4729,19 @@
         <v>1100974</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1045319</v>
+        <v>1046545</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1156372</v>
+        <v>1157654</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3233552477217184</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3070093368746946</v>
+        <v>0.3073693323208592</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3396253963726331</v>
+        <v>0.340001919660673</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1071</v>
@@ -4750,19 +4750,19 @@
         <v>1164243</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1110297</v>
+        <v>1107474</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1221951</v>
+        <v>1222051</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3298482329143674</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3145643868597213</v>
+        <v>0.3137645187620521</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3461976183269696</v>
+        <v>0.3462260932402612</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2094</v>
@@ -4771,19 +4771,19 @@
         <v>2265218</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2184317</v>
+        <v>2191151</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2346927</v>
+        <v>2350616</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3266601615887862</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3149937445533593</v>
+        <v>0.3159791570280175</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3384431922009876</v>
+        <v>0.3389751791805595</v>
       </c>
     </row>
     <row r="29">
@@ -4800,19 +4800,19 @@
         <v>1448194</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1389438</v>
+        <v>1388394</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1509452</v>
+        <v>1515489</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4253334201178527</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4080768208446741</v>
+        <v>0.407769997111507</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4433248038346196</v>
+        <v>0.4450977141668371</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1402</v>
@@ -4821,19 +4821,19 @@
         <v>1511425</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1447608</v>
+        <v>1449452</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1568802</v>
+        <v>1570152</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4282103273354528</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4101299027449125</v>
+        <v>0.4106524458986944</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4444660344399647</v>
+        <v>0.4448484761834431</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2761</v>
@@ -4842,19 +4842,19 @@
         <v>2959620</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2874416</v>
+        <v>2871698</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3047058</v>
+        <v>3045597</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4267977589813509</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4145107308317161</v>
+        <v>0.4141188301334797</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4394069692276958</v>
+        <v>0.439196294454141</v>
       </c>
     </row>
     <row r="30">
@@ -4871,19 +4871,19 @@
         <v>855676</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>807320</v>
+        <v>803258</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>906871</v>
+        <v>908459</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2513113321604289</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2371091339595322</v>
+        <v>0.2359160707159203</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.266347342001051</v>
+        <v>0.2668137467922361</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>798</v>
@@ -4892,19 +4892,19 @@
         <v>853964</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>803486</v>
+        <v>804576</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>909615</v>
+        <v>907831</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2419414397501799</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2276401376600845</v>
+        <v>0.2279490011475934</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2577081139512872</v>
+        <v>0.257202701860043</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1606</v>
@@ -4913,19 +4913,19 @@
         <v>1709641</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1633168</v>
+        <v>1640196</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1785224</v>
+        <v>1785751</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2465420794298629</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2355142291955032</v>
+        <v>0.2365276502873014</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2574417635891081</v>
+        <v>0.2575176813625432</v>
       </c>
     </row>
     <row r="31">
@@ -5259,19 +5259,19 @@
         <v>154307</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>135429</v>
+        <v>133954</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>174937</v>
+        <v>174609</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3605245910774758</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3164184587078033</v>
+        <v>0.3129718569287759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4087250515583306</v>
+        <v>0.4079594744438674</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>111</v>
@@ -5280,19 +5280,19 @@
         <v>117378</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>99433</v>
+        <v>99084</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>135954</v>
+        <v>135129</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3392263155242506</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2873648605197927</v>
+        <v>0.2863555839076131</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3929104438799215</v>
+        <v>0.3905251077948282</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>256</v>
@@ -5301,19 +5301,19 @@
         <v>271685</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>242489</v>
+        <v>244221</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>297181</v>
+        <v>299716</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3510034643009359</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3132830036201775</v>
+        <v>0.3155212879210794</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3839429644488552</v>
+        <v>0.3872183516870915</v>
       </c>
     </row>
     <row r="5">
@@ -5330,19 +5330,19 @@
         <v>167115</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>146901</v>
+        <v>147629</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>189794</v>
+        <v>186872</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3904489945876015</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3432212985731837</v>
+        <v>0.344922259567181</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4434379081334551</v>
+        <v>0.4366101774327966</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -5351,19 +5351,19 @@
         <v>144669</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>127135</v>
+        <v>128309</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>161581</v>
+        <v>165105</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4180980078195465</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3674232971769319</v>
+        <v>0.3708148690915102</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4669715338748632</v>
+        <v>0.4771578158416175</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>292</v>
@@ -5372,19 +5372,19 @@
         <v>311784</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>283683</v>
+        <v>282045</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>341281</v>
+        <v>341259</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4028091389368333</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3665043799160027</v>
+        <v>0.3643878338653277</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4409172807555348</v>
+        <v>0.4408900131751356</v>
       </c>
     </row>
     <row r="6">
@@ -5401,19 +5401,19 @@
         <v>106585</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>88817</v>
+        <v>89504</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>126355</v>
+        <v>125840</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2490264143349227</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.207512494169324</v>
+        <v>0.2091182010233375</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2952170154508686</v>
+        <v>0.2940134295823779</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>80</v>
@@ -5422,19 +5422,19 @@
         <v>83970</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>69420</v>
+        <v>68821</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>101648</v>
+        <v>101472</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2426756766562029</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2006250294563664</v>
+        <v>0.1988940128527462</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2937638406125049</v>
+        <v>0.2932578545375126</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>178</v>
@@ -5443,19 +5443,19 @@
         <v>190555</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>167767</v>
+        <v>166573</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>219471</v>
+        <v>216071</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2461873967622308</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.216745969107415</v>
+        <v>0.2152038311986392</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2835451901458215</v>
+        <v>0.2791530951433724</v>
       </c>
     </row>
     <row r="7">
@@ -5547,19 +5547,19 @@
         <v>119256</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>100758</v>
+        <v>102712</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>138818</v>
+        <v>140393</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.317842419536759</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2685411320805899</v>
+        <v>0.2737482049778327</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3699792818331568</v>
+        <v>0.3741779123990394</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>136</v>
@@ -5568,19 +5568,19 @@
         <v>147432</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>128518</v>
+        <v>127259</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>168104</v>
+        <v>166864</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.396032615284647</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.34522624514268</v>
+        <v>0.3418432110103195</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4515620654320935</v>
+        <v>0.4482313046136019</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>248</v>
@@ -5589,19 +5589,19 @@
         <v>266688</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>240263</v>
+        <v>239921</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>294921</v>
+        <v>291794</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.356784176901946</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3214310932385517</v>
+        <v>0.3209741935946369</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3945542286792091</v>
+        <v>0.3903716585680281</v>
       </c>
     </row>
     <row r="9">
@@ -5618,19 +5618,19 @@
         <v>166670</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>147325</v>
+        <v>145153</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>188571</v>
+        <v>186472</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4442110314000475</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3926532648089892</v>
+        <v>0.3868629250992116</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5025816622446786</v>
+        <v>0.4969861959986648</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>133</v>
@@ -5639,19 +5639,19 @@
         <v>137607</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>118903</v>
+        <v>120578</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>157569</v>
+        <v>156969</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3696410036085598</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3193968961070117</v>
+        <v>0.3238954111743818</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4232628865808977</v>
+        <v>0.4216496486785775</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>288</v>
@@ -5660,19 +5660,19 @@
         <v>304278</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>276877</v>
+        <v>278193</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>331892</v>
+        <v>333781</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4070722584222372</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3704150750366983</v>
+        <v>0.3721754186861844</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4440156510259387</v>
+        <v>0.4465425692235662</v>
       </c>
     </row>
     <row r="10">
@@ -5689,19 +5689,19 @@
         <v>89279</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73571</v>
+        <v>73666</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106956</v>
+        <v>105182</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2379465490631936</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1960809369467021</v>
+        <v>0.1963358066664947</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2850612472608582</v>
+        <v>0.2803314328803975</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -5710,19 +5710,19 @@
         <v>87233</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70867</v>
+        <v>71941</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105217</v>
+        <v>104586</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2343263811067931</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1903631634914716</v>
+        <v>0.1932489320593811</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.282634534528638</v>
+        <v>0.2809390473163424</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>168</v>
@@ -5731,19 +5731,19 @@
         <v>176512</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>153281</v>
+        <v>152606</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200290</v>
+        <v>201588</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2361435646758169</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2050647262762341</v>
+        <v>0.2041615060893504</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2679541721833286</v>
+        <v>0.269691012821844</v>
       </c>
     </row>
     <row r="11">
@@ -5835,19 +5835,19 @@
         <v>197312</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>175453</v>
+        <v>175976</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>222625</v>
+        <v>219826</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3794572147059675</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3374197357695432</v>
+        <v>0.3384244216896725</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4281372401299758</v>
+        <v>0.4227536219139651</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>62</v>
@@ -5856,19 +5856,19 @@
         <v>66863</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>54699</v>
+        <v>52964</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>80129</v>
+        <v>79053</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4050323573527663</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3313477106838502</v>
+        <v>0.3208352148741918</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4853935306446594</v>
+        <v>0.4788759240924182</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>256</v>
@@ -5877,19 +5877,19 @@
         <v>264175</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>236943</v>
+        <v>239251</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>289655</v>
+        <v>289072</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3856200978931492</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3458688904871903</v>
+        <v>0.3492385564678687</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4228139234017248</v>
+        <v>0.4219619964772602</v>
       </c>
     </row>
     <row r="13">
@@ -5906,19 +5906,19 @@
         <v>208208</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>187326</v>
+        <v>185722</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>231658</v>
+        <v>232255</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4004124686200337</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3602517829469131</v>
+        <v>0.3571687439123181</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.445509430226479</v>
+        <v>0.4466567410623796</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -5927,19 +5927,19 @@
         <v>66038</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>53392</v>
+        <v>54636</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81091</v>
+        <v>80315</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4000309193511886</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3234311619384211</v>
+        <v>0.3309621517504914</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4912170841317743</v>
+        <v>0.4865170118539811</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>258</v>
@@ -5948,19 +5948,19 @@
         <v>274246</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>248618</v>
+        <v>246125</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>300721</v>
+        <v>300610</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4003205260801025</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3629106725865019</v>
+        <v>0.3592726708580247</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4389657877401162</v>
+        <v>0.4388044924649521</v>
       </c>
     </row>
     <row r="14">
@@ -5977,19 +5977,19 @@
         <v>114464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>95275</v>
+        <v>96813</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>134997</v>
+        <v>135160</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2201303166739988</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1832273537798337</v>
+        <v>0.1861840873973318</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2596173228437187</v>
+        <v>0.2599298563415006</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -5998,19 +5998,19 @@
         <v>32180</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22721</v>
+        <v>22740</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42528</v>
+        <v>43577</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1949367232960451</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1376366889727606</v>
+        <v>0.1377488198125649</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2576161779408589</v>
+        <v>0.2639729503365266</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>138</v>
@@ -6019,19 +6019,19 @@
         <v>146645</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>127207</v>
+        <v>123346</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>171204</v>
+        <v>168928</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2140593760267482</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.185686075096908</v>
+        <v>0.1800492716856185</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2499082066901147</v>
+        <v>0.2465861125633679</v>
       </c>
     </row>
     <row r="15">
@@ -6123,19 +6123,19 @@
         <v>443075</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>411155</v>
+        <v>407614</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>478512</v>
+        <v>474393</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3863819461128633</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3585458289844209</v>
+        <v>0.3554581244286611</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4172847122700767</v>
+        <v>0.4136926886886595</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>325</v>
@@ -6144,19 +6144,19 @@
         <v>336283</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>308202</v>
+        <v>308932</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>365251</v>
+        <v>364030</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4093621577876914</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3751789758642454</v>
+        <v>0.3760667781496898</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4446252160103015</v>
+        <v>0.4431386867090584</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>749</v>
@@ -6165,19 +6165,19 @@
         <v>779359</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>734032</v>
+        <v>733824</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>820547</v>
+        <v>821675</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3959733047661759</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3729438872150083</v>
+        <v>0.3728383270047868</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4168998796355304</v>
+        <v>0.4174732118011031</v>
       </c>
     </row>
     <row r="17">
@@ -6194,19 +6194,19 @@
         <v>452681</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>417122</v>
+        <v>419961</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>489830</v>
+        <v>487259</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3947587445341681</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3637496969066382</v>
+        <v>0.3662249301267904</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4271540729864788</v>
+        <v>0.4249123869279429</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>301</v>
@@ -6215,19 +6215,19 @@
         <v>306981</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>279568</v>
+        <v>279043</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>335273</v>
+        <v>335286</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3736918490270261</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3403220168739487</v>
+        <v>0.3396828359884531</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4081325762216666</v>
+        <v>0.4081478422938239</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>736</v>
@@ -6236,19 +6236,19 @@
         <v>759662</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>716851</v>
+        <v>715668</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>807530</v>
+        <v>807679</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3859659556173371</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3642145605069654</v>
+        <v>0.3636135155151119</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4102866214324647</v>
+        <v>0.4103621532367496</v>
       </c>
     </row>
     <row r="18">
@@ -6265,19 +6265,19 @@
         <v>250972</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>221380</v>
+        <v>224985</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>276035</v>
+        <v>279842</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2188593093529685</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1930531208032618</v>
+        <v>0.1961974365280467</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2407148072753375</v>
+        <v>0.2440348015302354</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>168</v>
@@ -6286,19 +6286,19 @@
         <v>178217</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>152196</v>
+        <v>154614</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>201405</v>
+        <v>203990</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2169459931852825</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1852701703111661</v>
+        <v>0.188213888682554</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2451733929679081</v>
+        <v>0.2483201043117552</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>409</v>
@@ -6307,19 +6307,19 @@
         <v>429189</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>393056</v>
+        <v>394258</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>469860</v>
+        <v>468353</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.218060739616487</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1997024918162478</v>
+        <v>0.2003128792693966</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2387246677102256</v>
+        <v>0.2379586525032364</v>
       </c>
     </row>
     <row r="19">
@@ -6411,19 +6411,19 @@
         <v>249683</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224008</v>
+        <v>223851</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>273304</v>
+        <v>275142</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4035710292658149</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3620717446014029</v>
+        <v>0.3618169433974782</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4417491600437967</v>
+        <v>0.444719966419048</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>301</v>
@@ -6432,19 +6432,19 @@
         <v>315384</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>290719</v>
+        <v>286640</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>345432</v>
+        <v>342357</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4295500088644795</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3959567839047863</v>
+        <v>0.390401296467103</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4704754691208983</v>
+        <v>0.4662877151914042</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>540</v>
@@ -6453,19 +6453,19 @@
         <v>565067</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>526427</v>
+        <v>531099</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>602527</v>
+        <v>602408</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4176697829576638</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3891092152532111</v>
+        <v>0.3925619356053373</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4453580865215327</v>
+        <v>0.4452702951921521</v>
       </c>
     </row>
     <row r="21">
@@ -6482,19 +6482,19 @@
         <v>222043</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>199464</v>
+        <v>200287</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>249174</v>
+        <v>249175</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3588946465799501</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.322399552516635</v>
+        <v>0.3237303202244698</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4027476917865357</v>
+        <v>0.4027496169441944</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>237</v>
@@ -6503,19 +6503,19 @@
         <v>252467</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>227582</v>
+        <v>226248</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>278825</v>
+        <v>277803</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3438578594087349</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.309964928783458</v>
+        <v>0.3081474898769828</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3797575276574695</v>
+        <v>0.3783649122180247</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>453</v>
@@ -6524,19 +6524,19 @@
         <v>474510</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>439597</v>
+        <v>439226</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>510096</v>
+        <v>509172</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.350734204487197</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3249283806453754</v>
+        <v>0.3246542049821468</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.377037819517767</v>
+        <v>0.3763547869009297</v>
       </c>
     </row>
     <row r="22">
@@ -6553,19 +6553,19 @@
         <v>146959</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>127731</v>
+        <v>127003</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>166204</v>
+        <v>169435</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.237534324154235</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2064553675678239</v>
+        <v>0.2052788995597958</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.268640437382837</v>
+        <v>0.2738625776562166</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>157</v>
@@ -6574,19 +6574,19 @@
         <v>166368</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>144519</v>
+        <v>145895</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>189339</v>
+        <v>191895</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2265921317267856</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1968332932323864</v>
+        <v>0.1987073335043156</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2578787657156903</v>
+        <v>0.2613589436900098</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>297</v>
@@ -6595,19 +6595,19 @@
         <v>313327</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>280437</v>
+        <v>283931</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>344233</v>
+        <v>342631</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2315960125551392</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2072855828933288</v>
+        <v>0.2098678893558255</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2544402615312307</v>
+        <v>0.2532562465091417</v>
       </c>
     </row>
     <row r="23">
@@ -6699,19 +6699,19 @@
         <v>96386</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>80116</v>
+        <v>80404</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>112342</v>
+        <v>111652</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.338710575384893</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2815385317262046</v>
+        <v>0.282550686773526</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3947831167812934</v>
+        <v>0.3923571371557689</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>383</v>
@@ -6720,19 +6720,19 @@
         <v>418883</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>387249</v>
+        <v>382006</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>453017</v>
+        <v>450383</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3887191337282058</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3593634171788055</v>
+        <v>0.354497350352275</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4203947231195406</v>
+        <v>0.4179506050645934</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>475</v>
@@ -6741,19 +6741,19 @@
         <v>515268</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>481794</v>
+        <v>477005</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>553398</v>
+        <v>553074</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3782719783101396</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3536972021362915</v>
+        <v>0.3501818712550562</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.406263587066623</v>
+        <v>0.4060263360943195</v>
       </c>
     </row>
     <row r="25">
@@ -6770,19 +6770,19 @@
         <v>117061</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>102255</v>
+        <v>100679</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>133628</v>
+        <v>133769</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4113655099405358</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3593373318225794</v>
+        <v>0.3537983777469875</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4695858853441399</v>
+        <v>0.4700808004110312</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>403</v>
@@ -6791,19 +6791,19 @@
         <v>439829</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>405882</v>
+        <v>408237</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>473523</v>
+        <v>476435</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4081567694762212</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3766546098623462</v>
+        <v>0.3788402049806201</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4394242284927263</v>
+        <v>0.4421270732405611</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>513</v>
@@ -6812,19 +6812,19 @@
         <v>556890</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>521858</v>
+        <v>512459</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>595423</v>
+        <v>590856</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4088270989445654</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3831091711678103</v>
+        <v>0.3762091378802845</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4371154050290485</v>
+        <v>0.4337625110259232</v>
       </c>
     </row>
     <row r="26">
@@ -6841,19 +6841,19 @@
         <v>71120</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>58591</v>
+        <v>58274</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>87032</v>
+        <v>87881</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2499239146745712</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2058955097649258</v>
+        <v>0.2047803889172152</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3058404412035587</v>
+        <v>0.3088243386904269</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>202</v>
@@ -6862,19 +6862,19 @@
         <v>218886</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>190677</v>
+        <v>191802</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>245126</v>
+        <v>246580</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.203124096795573</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1769458944460092</v>
+        <v>0.1779903448202046</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.227474177556963</v>
+        <v>0.2288234059826181</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>270</v>
@@ -6883,19 +6883,19 @@
         <v>290006</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>260217</v>
+        <v>260478</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>321337</v>
+        <v>324126</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.212900922745295</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1910320152653548</v>
+        <v>0.1912234760030023</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2359017401199406</v>
+        <v>0.2379491102413063</v>
       </c>
     </row>
     <row r="27">
@@ -6987,19 +6987,19 @@
         <v>1260019</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1206169</v>
+        <v>1199758</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1316479</v>
+        <v>1319191</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3735408531351607</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3575765959731594</v>
+        <v>0.3556759831262529</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3902788199048998</v>
+        <v>0.3910827605888437</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1318</v>
@@ -7008,19 +7008,19 @@
         <v>1402224</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1347923</v>
+        <v>1341190</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1461920</v>
+        <v>1461924</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3987362508922048</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.38329513590454</v>
+        <v>0.3813807340013075</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4157115847803708</v>
+        <v>0.4157125492829078</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2524</v>
@@ -7029,19 +7029,19 @@
         <v>2662243</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2582653</v>
+        <v>2582477</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2744600</v>
+        <v>2752880</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3864009238221442</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3748491306293844</v>
+        <v>0.3748236458104698</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3983543043008538</v>
+        <v>0.3995560574474573</v>
       </c>
     </row>
     <row r="29">
@@ -7058,19 +7058,19 @@
         <v>1333778</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1275093</v>
+        <v>1279698</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1391010</v>
+        <v>1396852</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3954071377866439</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3780097519744423</v>
+        <v>0.3793748770109202</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4123738537981054</v>
+        <v>0.4141057781795066</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1273</v>
@@ -7079,19 +7079,19 @@
         <v>1347591</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1289231</v>
+        <v>1295429</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1404641</v>
+        <v>1408081</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3832008527271646</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3666055924743467</v>
+        <v>0.3683681209176228</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3994234886234193</v>
+        <v>0.4004016774729198</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2540</v>
@@ -7100,19 +7100,19 @@
         <v>2681369</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2602767</v>
+        <v>2601940</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2766535</v>
+        <v>2767041</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3891768853332375</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.377768532312486</v>
+        <v>0.3776485315758144</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4015380285811383</v>
+        <v>0.4016114049141504</v>
       </c>
     </row>
     <row r="30">
@@ -7129,19 +7129,19 @@
         <v>779379</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>729843</v>
+        <v>728673</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>830514</v>
+        <v>827124</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2310520090781955</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2163666520130211</v>
+        <v>0.2160197886314309</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2462112925340057</v>
+        <v>0.2452062571091021</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>721</v>
@@ -7150,19 +7150,19 @@
         <v>766855</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>715908</v>
+        <v>717640</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>816397</v>
+        <v>818288</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2180628963806306</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2035755192373225</v>
+        <v>0.2040679726057243</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.232150480948247</v>
+        <v>0.2326883250197163</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1460</v>
@@ -7171,19 +7171,19 @@
         <v>1546234</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1480992</v>
+        <v>1481638</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1622309</v>
+        <v>1620716</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2244221908446183</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2149529129124949</v>
+        <v>0.2150465498368201</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2354638126998172</v>
+        <v>0.2352324932331992</v>
       </c>
     </row>
     <row r="31">
